--- a/BOM_ModXo+Epimetheus_ModXo+Epimetheus.xlsx
+++ b/BOM_ModXo+Epimetheus_ModXo+Epimetheus.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>No.</t>
   </si>
@@ -139,7 +139,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>220OHM-0805L</t>
+    <t>MPZ2012S221AT000</t>
   </si>
   <si>
     <t>L1</t>
@@ -148,13 +148,10 @@
     <t>L0805</t>
   </si>
   <si>
-    <t>220ohm-0805L</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>C9900020208</t>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C76818</t>
   </si>
   <si>
     <t>7</t>
@@ -941,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -955,31 +952,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -987,31 +984,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -1019,31 +1016,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>65</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -1051,31 +1048,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>73</v>
-      </c>
-      <c r="I11" t="s">
-        <v>74</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -1083,31 +1080,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>77</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -1115,31 +1112,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>82</v>
       </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>83</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>84</v>
-      </c>
-      <c r="I13" t="s">
-        <v>85</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
@@ -1147,31 +1144,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
         <v>88</v>
       </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>89</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>90</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
@@ -1179,31 +1176,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>94</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
         <v>95</v>
       </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>96</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>97</v>
-      </c>
-      <c r="I15" t="s">
-        <v>98</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1211,31 +1208,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>101</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
         <v>102</v>
       </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>103</v>
-      </c>
-      <c r="I16" t="s">
-        <v>104</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -1243,31 +1240,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
         <v>106</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>107</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>109</v>
-      </c>
-      <c r="I17" t="s">
-        <v>110</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>

--- a/BOM_ModXo+Epimetheus_ModXo+Epimetheus.xlsx
+++ b/BOM_ModXo+Epimetheus_ModXo+Epimetheus.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_ModXo+Epimetheus_ModXo+Epim" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_PCB1_2024-11-14" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>No.</t>
   </si>
@@ -46,6 +46,21 @@
     <t>1</t>
   </si>
   <si>
+    <t>Test-Point</t>
+  </si>
+  <si>
+    <t>5V,DO,RGB</t>
+  </si>
+  <si>
+    <t>Test-Point-0.5mm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1uF</t>
   </si>
   <si>
@@ -55,9 +70,6 @@
     <t>C0805</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>CS0805KKX7R8BB105</t>
   </si>
   <si>
@@ -70,7 +82,7 @@
     <t>LCSC</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>100nF</t>
@@ -88,7 +100,7 @@
     <t>C3037660</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>1N4148WS-V-GS18</t>
@@ -106,7 +118,7 @@
     <t>C19078477</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>SM06B-SRSS-TB(LF)(SN)</t>
@@ -124,22 +136,10 @@
     <t>C160405</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Test-Point</t>
-  </si>
-  <si>
-    <t>DO,RGB</t>
-  </si>
-  <si>
-    <t>Test-Point-0.5mm</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>MPZ2012S221AT000</t>
+    <t>220OHM-0805L</t>
   </si>
   <si>
     <t>L1</t>
@@ -148,10 +148,13 @@
     <t>L0805</t>
   </si>
   <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>C76818</t>
+    <t>220ohm-0805L</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>C9900020208</t>
   </si>
   <si>
     <t>7</t>
@@ -328,19 +331,19 @@
     <t>16</t>
   </si>
   <si>
-    <t>AP2210K-3.3TRG1</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>DIODES(美台)</t>
-  </si>
-  <si>
-    <t>C176959</t>
+    <t>MIC5504-3.3YM5-TR</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-TL</t>
+  </si>
+  <si>
+    <t>MICROCHIP(美国微芯)</t>
+  </si>
+  <si>
+    <t>C88419</t>
   </si>
 </sst>
 </file>
@@ -778,65 +781,65 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -845,77 +848,77 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -938,336 +941,336 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
         <v>106</v>
       </c>
-      <c r="E17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
